--- a/Разработка.xlsx
+++ b/Разработка.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>№</t>
   </si>
@@ -349,8 +349,14 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">доработать печать, экспорт </t>
-    </r>
+      <t>доработать по Автоцистернам</t>
+    </r>
+  </si>
+  <si>
+    <t>Отчет по автоцистернам</t>
+  </si>
+  <si>
+    <t>19.05.2019</t>
   </si>
   <si>
     <r>
@@ -366,31 +372,15 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>доработать печать, экспорт</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Тестируется, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>доработать по Автоцистернам</t>
-    </r>
-  </si>
-  <si>
-    <t>Отчет по автоцистернам</t>
-  </si>
-  <si>
-    <t>печать, экспорт</t>
+      <t>доработать печать</t>
+    </r>
+  </si>
+  <si>
+    <t>20.05.2019</t>
+  </si>
+  <si>
+    <t>20.05.2019
+печать</t>
   </si>
 </sst>
 </file>
@@ -808,7 +798,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,16 +887,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -914,25 +904,31 @@
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -941,20 +937,28 @@
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -993,7 +997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1001,13 +1005,13 @@
         <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">

--- a/Разработка.xlsx
+++ b/Разработка.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>№</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>14.05.2019</t>
-  </si>
-  <si>
-    <t>тестируется</t>
   </si>
   <si>
     <r>
@@ -305,9 +302,6 @@
     <t>апрель 2019</t>
   </si>
   <si>
-    <t>тестирование</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -336,8 +330,45 @@
     <t>Текущая задача</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Тестируется, 
+    <t>Отчет по автоцистернам</t>
+  </si>
+  <si>
+    <t>19.05.2019</t>
+  </si>
+  <si>
+    <t>26.05.2019</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Доработка режимы  выдачи ГСМ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Режим 4. Переделать отображение и выбор справочников "Завод" и "Склад"</t>
+    </r>
+  </si>
+  <si>
+    <t>Тестировать</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тестировать, 
 </t>
     </r>
     <r>
@@ -351,36 +382,6 @@
       </rPr>
       <t>доработать по Автоцистернам</t>
     </r>
-  </si>
-  <si>
-    <t>Отчет по автоцистернам</t>
-  </si>
-  <si>
-    <t>19.05.2019</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Тестируется, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>доработать печать</t>
-    </r>
-  </si>
-  <si>
-    <t>20.05.2019</t>
-  </si>
-  <si>
-    <t>20.05.2019
-печать</t>
   </si>
 </sst>
 </file>
@@ -795,17 +796,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:E14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
@@ -816,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -833,14 +834,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -848,178 +849,189 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4" t="s">
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Разработка.xlsx
+++ b/Разработка.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -258,22 +258,6 @@
   </si>
   <si>
     <r>
-      <t>Контроль по ёмкости</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Окно Основные показаний по емкостям</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <i/>
@@ -330,9 +314,6 @@
     <t>Текущая задача</t>
   </si>
   <si>
-    <t>Отчет по автоцистернам</t>
-  </si>
-  <si>
     <t>19.05.2019</t>
   </si>
   <si>
@@ -367,8 +348,74 @@
     <t>Тестировать</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Тестировать, 
+    <t>10.06.2019</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выдача ГСМ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Автоматическое формирование таблицы суточного отчета</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Выдача ГСМ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Суточный отчет</t>
+    </r>
+  </si>
+  <si>
+    <t>Разработана ХП (запускается вручную)</t>
+  </si>
+  <si>
+    <t>тестировать</t>
+  </si>
+  <si>
+    <t>Необходимо выполнить службу которая раз в сутки будет запускать ХП</t>
+  </si>
+  <si>
+    <t>Необходимо перенести проект с тестового на продуктив и проверить работу по всем режимам</t>
+  </si>
+  <si>
+    <t>Выполнен визуальный контроль</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Отчет по Автоцистернам 
 </t>
     </r>
     <r>
@@ -380,15 +427,119 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>(нет приема по автоцистернам)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выдача ГСМ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Отчеты (Добавить функционал выборки за период)</t>
+    </r>
+  </si>
+  <si>
+    <t>Уточнить необходимость и перечень отчетов</t>
+  </si>
+  <si>
+    <t>Тестировать по Автоцистернам</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>доработать по Автоцистернам</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выдача ГСМ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Сменный отчет (разница в показаниях выдано "ТРК" и "Емкости") - выполнить фиксацию состояния счетчиков в 7:00: 19:00, и по вызову отчета</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выдача ГСМ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Отчеты (Добавить функционал выборки по номеру смены с реальным отображениям даты начала и конца сменны)</t>
+    </r>
+  </si>
+  <si>
+    <t>Новые задачи (24-06-2019)</t>
+  </si>
+  <si>
+    <t>25.06.2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,8 +591,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,8 +624,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -482,13 +653,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -511,13 +720,26 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="3" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -796,17 +1018,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
@@ -820,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -840,83 +1062,88 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>10</v>
@@ -925,115 +1152,170 @@
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:E15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Разработка.xlsx
+++ b/Разработка.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -392,9 +392,6 @@
     </r>
   </si>
   <si>
-    <t>Разработана ХП (запускается вручную)</t>
-  </si>
-  <si>
     <t>тестировать</t>
   </si>
   <si>
@@ -533,6 +530,12 @@
   </si>
   <si>
     <t>25.06.2019</t>
+  </si>
+  <si>
+    <t>26.06.2020</t>
+  </si>
+  <si>
+    <t>26.06.2019</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>22</v>
@@ -1102,10 +1105,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -1121,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1132,13 +1135,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1234,28 +1237,26 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1267,7 +1268,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>24</v>
@@ -1278,23 +1279,27 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1304,10 +1309,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>

--- a/Разработка.xlsx
+++ b/Разработка.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2013\Projects\Work\TRK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2017\Projects\Work\TRK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -376,22 +376,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Выдача ГСМ.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Суточный отчет</t>
-    </r>
-  </si>
-  <si>
     <t>тестировать</t>
   </si>
   <si>
@@ -529,20 +513,155 @@
     <t>Новые задачи (24-06-2019)</t>
   </si>
   <si>
-    <t>25.06.2019</t>
-  </si>
-  <si>
     <t>26.06.2020</t>
   </si>
   <si>
     <t>26.06.2019</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Задача не подтверждена Белоусовым</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнен полный контроль заправляемых средств с учетом расчетного остатка топлива (контроль работает с не сколькими транспортными средствами) </t>
+  </si>
+  <si>
+    <t>п.2 
+26.05.2019</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Доработка контроля выдачи ГСМ. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо исключить цеха 162 и 163 из проверки  лимита (500 л.) на выдачу топлива по номеру одного и того же резервирования по режиму 5 (заправка в бак ТС).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Доработка контроля выдачи ГСМ. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Добавить проверку по режиму № 2 (заправка по резервированию)  - шифр цеха, указанный в RFID карте, должен совпадать с шифром цеха в резервировании. В противном случае выдать сообщение «Шифр цеха RFID карты, не совпадает с шифром цеха резервирования».</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Доработка контроля выдачи ГСМ. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В режиме номер 6 (заправка топливозаправщика) убрать обязательное заполнение всех полей, кроме номера наряда – допуска. И переименовать это поле в «Номер супер – маршрута».</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Новые задачи (27-06-2019) Письмо Труновой Т. </t>
+  </si>
+  <si>
+    <t>01.07.2019</t>
+  </si>
+  <si>
+    <t>Были сделаны глобальные изменения.
+Необходимо перенести проект с тестового на продуктив и проверить работу по всем режимам и НС</t>
+  </si>
+  <si>
+    <r>
+      <t>Выдача ГСМ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Суточный отчет (Добавлено приведение к 15 градусам)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.06.2019</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +728,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -633,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -688,6 +816,43 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -700,7 +865,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -737,6 +902,15 @@
     </xf>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1021,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1249,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>22</v>
@@ -1105,10 +1279,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -1124,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1135,13 +1309,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1237,7 +1411,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1253,22 +1427,22 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>24</v>
@@ -1279,13 +1453,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>24</v>
@@ -1296,10 +1470,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1309,17 +1483,75 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
